--- a/recidiviz/tests/justice_counts/bulk_upload/bulk_upload_fixtures/law_enforcement/breakdown_errors.xlsx
+++ b/recidiviz/tests/justice_counts/bulk_upload/bulk_upload_fixtures/law_enforcement/breakdown_errors.xlsx
@@ -16,7 +16,7 @@
     <sheet name="arrests" sheetId="9" r:id="rId12"/>
     <sheet name="arrests_by_type" sheetId="10" r:id="rId13"/>
     <sheet name="arrests_by_race" sheetId="11" r:id="rId14"/>
-    <sheet name="arrests_by_gender" sheetId="12" r:id="rId15"/>
+    <sheet name="arrests_by_biological_sex" sheetId="12" r:id="rId15"/>
     <sheet name="use_of_force" sheetId="13" r:id="rId16"/>
     <sheet name="use_of_force_by_type" sheetId="14" r:id="rId17"/>
     <sheet name="civilian_complaints_sustained" sheetId="15" r:id="rId18"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>year</t>
   </si>
@@ -138,16 +138,13 @@
     <t>White</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>biological_sex</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>Non-Binary</t>
   </si>
   <si>
     <t>force_type</t>
@@ -195,7 +192,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,14 +217,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -550,28 +541,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,118 +571,43 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,7 +617,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -813,40 +729,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -908,9 +797,6 @@
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2123,8 +2009,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="55" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="55" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -3719,8 +3605,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="56" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -6245,14 +6131,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="57" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="57" customWidth="1"/>
+    <col min="1" max="2" width="8.85156" style="48" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="48" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -6304,7 +6192,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -6314,10 +6202,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -6327,10 +6215,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -6343,7 +6231,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -6353,10 +6241,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -6366,10 +6254,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -6379,10 +6267,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -6392,10 +6280,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -6405,10 +6293,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -6418,10 +6306,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -6431,10 +6319,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -6444,10 +6332,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -6457,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s" s="9">
         <v>23</v>
@@ -6470,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s" s="9">
         <v>38</v>
@@ -6483,7 +6371,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s" s="9">
         <v>39</v>
@@ -6496,10 +6384,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -6509,10 +6397,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -6522,10 +6410,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -6535,10 +6423,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -6548,10 +6436,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -6561,10 +6449,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -6574,10 +6462,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -6587,10 +6475,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -6600,10 +6488,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -6613,10 +6501,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -6626,10 +6514,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -6639,10 +6527,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -6652,7 +6540,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s" s="9">
         <v>23</v>
@@ -6665,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s" s="9">
         <v>38</v>
@@ -6678,7 +6566,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s" s="9">
         <v>39</v>
@@ -6691,10 +6579,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -6704,10 +6592,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -6717,10 +6605,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -6730,124 +6618,124 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s" s="9">
         <v>23</v>
@@ -6857,10 +6745,10 @@
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s" s="9">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s" s="9">
         <v>38</v>
@@ -6870,10 +6758,10 @@
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s" s="9">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s" s="9">
         <v>39</v>
@@ -6883,166 +6771,166 @@
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s" s="9">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
     </row>
     <row r="50" ht="13.55" customHeight="1">
       <c r="A50" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s" s="9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s" s="9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" ht="13.55" customHeight="1">
       <c r="A53" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
     </row>
     <row r="54" ht="13.55" customHeight="1">
       <c r="A54" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
     </row>
     <row r="55" ht="13.55" customHeight="1">
       <c r="A55" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
     <row r="57" ht="13.55" customHeight="1">
       <c r="A57" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
     </row>
     <row r="58" ht="13.55" customHeight="1">
       <c r="A58" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
     </row>
     <row r="59" ht="13.55" customHeight="1">
       <c r="A59" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" ht="13.55" customHeight="1">
       <c r="A60" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
     </row>
     <row r="61" ht="13.55" customHeight="1">
       <c r="A61" t="s" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s" s="9">
         <v>23</v>
@@ -7055,7 +6943,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s" s="9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s" s="9">
         <v>38</v>
@@ -7068,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s" s="9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s" s="9">
         <v>39</v>
@@ -7081,10 +6969,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s" s="9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -7094,10 +6982,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="s" s="9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -7107,10 +6995,10 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -7120,10 +7008,10 @@
         <v>4</v>
       </c>
       <c r="B67" t="s" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -7133,10 +7021,10 @@
         <v>4</v>
       </c>
       <c r="B68" t="s" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -7146,10 +7034,10 @@
         <v>4</v>
       </c>
       <c r="B69" t="s" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -7159,10 +7047,10 @@
         <v>4</v>
       </c>
       <c r="B70" t="s" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -7172,10 +7060,10 @@
         <v>4</v>
       </c>
       <c r="B71" t="s" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -7185,10 +7073,10 @@
         <v>4</v>
       </c>
       <c r="B72" t="s" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -7198,637 +7086,13 @@
         <v>4</v>
       </c>
       <c r="B73" t="s" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-    </row>
-    <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" ht="13.55" customHeight="1">
-      <c r="A75" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" ht="13.55" customHeight="1">
-      <c r="A76" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" ht="13.55" customHeight="1">
-      <c r="A77" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C77" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B79" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" ht="13.55" customHeight="1">
-      <c r="A80" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B80" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" ht="13.55" customHeight="1">
-      <c r="A81" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C81" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" ht="13.55" customHeight="1">
-      <c r="A82" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B82" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" ht="13.55" customHeight="1">
-      <c r="A83" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B83" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C83" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" ht="13.55" customHeight="1">
-      <c r="A84" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B84" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C84" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" ht="13.55" customHeight="1">
-      <c r="A85" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B85" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C85" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" ht="13.55" customHeight="1">
-      <c r="A86" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B86" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C86" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" ht="13.55" customHeight="1">
-      <c r="A87" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B87" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C87" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" ht="13.55" customHeight="1">
-      <c r="A88" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B88" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" ht="13.55" customHeight="1">
-      <c r="A89" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B89" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C89" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" ht="13.55" customHeight="1">
-      <c r="A90" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B90" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C90" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" ht="13.55" customHeight="1">
-      <c r="A91" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B91" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C91" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" ht="13.55" customHeight="1">
-      <c r="A92" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B92" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" ht="13.55" customHeight="1">
-      <c r="A93" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B93" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" ht="13.55" customHeight="1">
-      <c r="A94" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B94" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" ht="13.55" customHeight="1">
-      <c r="A95" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B95" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="C95" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" ht="13.55" customHeight="1">
-      <c r="A96" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B96" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="C96" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" ht="13.55" customHeight="1">
-      <c r="A97" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B97" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C97" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" ht="13.55" customHeight="1">
-      <c r="A98" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B98" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C98" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" ht="13.55" customHeight="1">
-      <c r="A99" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B99" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C99" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" ht="13.55" customHeight="1">
-      <c r="A100" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B100" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C100" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" ht="13.55" customHeight="1">
-      <c r="A101" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B101" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C101" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" ht="13.55" customHeight="1">
-      <c r="A102" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B102" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C102" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" ht="13.55" customHeight="1">
-      <c r="A103" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B103" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C103" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" ht="13.55" customHeight="1">
-      <c r="A104" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B104" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C104" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" ht="13.55" customHeight="1">
-      <c r="A105" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B105" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C105" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" ht="13.55" customHeight="1">
-      <c r="A106" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B106" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C106" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" ht="13.55" customHeight="1">
-      <c r="A107" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B107" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C107" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" ht="13.55" customHeight="1">
-      <c r="A108" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B108" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C108" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" ht="13.55" customHeight="1">
-      <c r="A109" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B109" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C109" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-    </row>
-    <row r="110" ht="13.55" customHeight="1">
-      <c r="A110" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B110" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C110" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111" ht="13.55" customHeight="1">
-      <c r="A111" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B111" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C111" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-    </row>
-    <row r="112" ht="13.55" customHeight="1">
-      <c r="A112" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B112" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C112" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-    </row>
-    <row r="113" ht="13.55" customHeight="1">
-      <c r="A113" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B113" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C113" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" ht="13.55" customHeight="1">
-      <c r="A114" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B114" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C114" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-    </row>
-    <row r="115" ht="13.55" customHeight="1">
-      <c r="A115" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B115" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C115" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-    </row>
-    <row r="116" ht="13.55" customHeight="1">
-      <c r="A116" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B116" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C116" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-    </row>
-    <row r="117" ht="13.55" customHeight="1">
-      <c r="A117" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B117" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C117" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-    </row>
-    <row r="118" ht="13.55" customHeight="1">
-      <c r="A118" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B118" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C118" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-    </row>
-    <row r="119" ht="13.55" customHeight="1">
-      <c r="A119" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B119" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C119" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-    </row>
-    <row r="120" ht="13.55" customHeight="1">
-      <c r="A120" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B120" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C120" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-    </row>
-    <row r="121" ht="13.55" customHeight="1">
-      <c r="A121" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="B121" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C121" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7847,8 +7111,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="58" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="58" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -7946,8 +7210,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="59" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="59" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -7955,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="2">
         <v>2</v>
@@ -7968,7 +7232,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="11"/>
@@ -7979,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7990,7 +7254,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -8001,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -8023,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -8034,7 +7298,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -8045,7 +7309,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -8056,7 +7320,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -8090,8 +7354,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="60" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="60" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="51" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -8399,9 +7663,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -8423,71 +7685,71 @@
       <c r="E1" s="36"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="37">
-        <v>3</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" t="s" s="18">
+        <v>3</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="41">
-        <v>4</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="A3" t="s" s="22">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" ht="13.2" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" ht="12.9" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" ht="12.9" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" ht="12.9" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" ht="12.9" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="12.9" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" ht="12.9" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -8506,10 +7768,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="49" customWidth="1"/>
-    <col min="3" max="3" width="15.1719" style="49" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="49" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="49" customWidth="1"/>
+    <col min="1" max="2" width="8.85156" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15.1719" style="40" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -8522,7 +7784,7 @@
       <c r="C1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="50">
+      <c r="D1" t="s" s="41">
         <v>2</v>
       </c>
       <c r="E1" s="11"/>
@@ -8816,8 +8078,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="51" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="51" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -9788,8 +9050,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="52" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="52" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="43" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -10086,8 +9348,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="53" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="53" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -11682,8 +10944,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="54" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="54" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
